--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/MAINE_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/MAINE_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C6">
@@ -483,7 +483,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C17">
@@ -879,41 +879,6 @@
       </c>
       <c r="D35">
         <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/MAINE_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/MAINE_2018.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Texcaltitlán</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -680,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -711,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -742,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -755,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -786,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -799,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -830,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -843,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -856,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
